--- a/files/substitute-details.xlsx
+++ b/files/substitute-details.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mohankumar\projects-important\post-office-management-api\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D67FD02-9885-406F-B476-A51ACBFE3EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C74446-C0B0-454A-BFA6-60FBB3EC4DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="substitute-details" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'substitute-details'!$C$1:$C$111</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1198,14 +1201,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10002991432</v>
+        <v>779927854</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1238,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10021099867</v>
+        <v>831579324</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1249,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4733771572</v>
+        <v>831625845</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1260,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3937335214</v>
+        <v>831704364</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1271,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3941155211</v>
+        <v>831719940</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1282,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>3408950687</v>
+        <v>831739838</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1293,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>10009918168</v>
+        <v>831741578</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1304,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>10021737665</v>
+        <v>831846891</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1315,7 +1318,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>10009879866</v>
+        <v>831917454</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1326,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>3374475566</v>
+        <v>1160736815</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1337,7 +1340,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>831579324</v>
+        <v>1209692546</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1348,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>10004504030</v>
+        <v>1248071319</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1359,7 +1362,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>3988287807</v>
+        <v>1773009016</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1370,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4180976230</v>
+        <v>1893168730</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1381,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>6339694718</v>
+        <v>1893169966</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1392,7 +1395,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4106180475</v>
+        <v>1893246162</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1403,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>831719940</v>
+        <v>1893257861</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1414,7 +1417,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>831704364</v>
+        <v>2038468883</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1425,7 +1428,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>10001820074</v>
+        <v>2673623142</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1436,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>10020557754</v>
+        <v>2762302170</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1447,7 +1450,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>10007987611</v>
+        <v>3030608765</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1458,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>3589311901</v>
+        <v>3092567376</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1469,7 +1472,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>10010019262</v>
+        <v>3361343199</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1480,7 +1483,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>4106179691</v>
+        <v>3374475566</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1491,7 +1494,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>3891750870</v>
+        <v>3408128574</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1502,7 +1505,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>10019409708</v>
+        <v>3408950687</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1513,7 +1516,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>4115088489</v>
+        <v>3428560088</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1524,7 +1527,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1773009016</v>
+        <v>3463732549</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1535,7 +1538,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>10029680765</v>
+        <v>3467051905</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1546,7 +1549,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>4107003247</v>
+        <v>3470937920</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1557,7 +1560,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>831741578</v>
+        <v>3589311901</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1568,7 +1571,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>10013140211</v>
+        <v>3651443202</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1579,7 +1582,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>10034634447</v>
+        <v>3698073844</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1590,7 +1593,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>4629328590</v>
+        <v>3796737426</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1601,7 +1604,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>3470937920</v>
+        <v>3815779017</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1612,7 +1615,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>10015943102</v>
+        <v>3854632403</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1623,7 +1626,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>10029334334</v>
+        <v>3868258552</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1634,7 +1637,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>3698073844</v>
+        <v>3891750870</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1645,7 +1648,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>10022168008</v>
+        <v>3937335214</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1656,7 +1659,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>4108788303</v>
+        <v>3941155211</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1666,6 +1669,9 @@
       <c r="B42" t="s">
         <v>40</v>
       </c>
+      <c r="C42">
+        <v>3988287807</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -1675,7 +1681,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>10016472295</v>
+        <v>4007866232</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1686,7 +1692,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>4444631578</v>
+        <v>4049521410</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1697,7 +1703,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>4579760358</v>
+        <v>4106179691</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1708,7 +1714,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>1248071319</v>
+        <v>4106180475</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1719,7 +1725,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>3796737426</v>
+        <v>4106220072</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1730,7 +1736,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>4564281974</v>
+        <v>4107003247</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1741,7 +1747,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>4795777369</v>
+        <v>4107277792</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1752,7 +1758,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>4169075220</v>
+        <v>4108788303</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1763,7 +1769,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>1160736815</v>
+        <v>4115088489</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1774,7 +1780,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>4120928022</v>
+        <v>4117931455</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1785,7 +1791,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>10014874277</v>
+        <v>4120928022</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1796,7 +1802,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>4778808035</v>
+        <v>4123858012</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1807,7 +1813,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>1893168730</v>
+        <v>4125110828</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1818,7 +1824,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>1209692546</v>
+        <v>4127657895</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1829,7 +1835,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>4768686247</v>
+        <v>4158109752</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1840,7 +1846,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>4123858012</v>
+        <v>4169075220</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1851,7 +1857,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>4815315175</v>
+        <v>4180976230</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1862,7 +1868,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>3092567376</v>
+        <v>4216994696</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1884,7 +1890,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>3815779017</v>
+        <v>4444631578</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1895,7 +1901,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>3854632403</v>
+        <v>4518605337</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1906,7 +1912,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>10032845043</v>
+        <v>4564281974</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1917,7 +1923,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>10001769756</v>
+        <v>4579760358</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1928,7 +1934,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>3868258552</v>
+        <v>4629328590</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1939,7 +1945,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>4884222404</v>
+        <v>4733771572</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1950,7 +1956,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>3408128574</v>
+        <v>4759895702</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1961,7 +1967,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>4117931455</v>
+        <v>4768686247</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1972,7 +1978,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>4125110828</v>
+        <v>4778808035</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1983,7 +1989,7 @@
         <v>65</v>
       </c>
       <c r="C71">
-        <v>4884222404</v>
+        <v>4795777369</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1994,7 +2000,7 @@
         <v>69</v>
       </c>
       <c r="C72">
-        <v>4049521410</v>
+        <v>4814002403</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2005,7 +2011,7 @@
         <v>70</v>
       </c>
       <c r="C73">
-        <v>10034558511</v>
+        <v>4815315175</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2016,7 +2022,7 @@
         <v>71</v>
       </c>
       <c r="C74">
-        <v>4107277792</v>
+        <v>4874765188</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2027,7 +2033,7 @@
         <v>72</v>
       </c>
       <c r="C75">
-        <v>3030608765</v>
+        <v>48842224041</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2038,7 +2044,7 @@
         <v>73</v>
       </c>
       <c r="C76">
-        <v>10031071945</v>
+        <v>4884222404</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2049,7 +2055,7 @@
         <v>74</v>
       </c>
       <c r="C77">
-        <v>831739838</v>
+        <v>6339694718</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2060,7 +2066,7 @@
         <v>75</v>
       </c>
       <c r="C78">
-        <v>10034353298</v>
+        <v>10001769756</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2071,7 +2077,7 @@
         <v>76</v>
       </c>
       <c r="C79">
-        <v>10008239243</v>
+        <v>10001820074</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2082,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="C80">
-        <v>831625845</v>
+        <v>10002991432</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2093,7 +2099,7 @@
         <v>78</v>
       </c>
       <c r="C81">
-        <v>2673623142</v>
+        <v>10004504030</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2104,7 +2110,7 @@
         <v>79</v>
       </c>
       <c r="C82">
-        <v>10032229194</v>
+        <v>10005768623</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2115,7 +2121,7 @@
         <v>80</v>
       </c>
       <c r="C83">
-        <v>2038468883</v>
+        <v>10007987611</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2126,7 +2132,7 @@
         <v>81</v>
       </c>
       <c r="C84">
-        <v>3361343199</v>
+        <v>10008239243</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2137,7 +2143,7 @@
         <v>82</v>
       </c>
       <c r="C85">
-        <v>3651443202</v>
+        <v>10009879866</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2148,7 +2154,7 @@
         <v>83</v>
       </c>
       <c r="C86">
-        <v>10033869013</v>
+        <v>10009918168</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2159,7 +2165,7 @@
         <v>84</v>
       </c>
       <c r="C87">
-        <v>10005768623</v>
+        <v>10010019262</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2170,7 +2176,7 @@
         <v>85</v>
       </c>
       <c r="C88">
-        <v>100032854261</v>
+        <v>10012393953</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2181,7 +2187,7 @@
         <v>86</v>
       </c>
       <c r="C89">
-        <v>3463732549</v>
+        <v>10013140211</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2192,7 +2198,7 @@
         <v>87</v>
       </c>
       <c r="C90">
-        <v>831917454</v>
+        <v>10014874277</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2203,7 +2209,7 @@
         <v>88</v>
       </c>
       <c r="C91">
-        <v>4158109752</v>
+        <v>10015943102</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2214,7 +2220,7 @@
         <v>89</v>
       </c>
       <c r="C92">
-        <v>4874765188</v>
+        <v>10016472295</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2225,7 +2231,7 @@
         <v>90</v>
       </c>
       <c r="C93">
-        <v>10033869013</v>
+        <v>10019409708</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2236,7 +2242,7 @@
         <v>91</v>
       </c>
       <c r="C94">
-        <v>779927854</v>
+        <v>10020557754</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2247,7 +2253,7 @@
         <v>92</v>
       </c>
       <c r="C95">
-        <v>831846891</v>
+        <v>10021099867</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2258,7 +2264,7 @@
         <v>93</v>
       </c>
       <c r="C96">
-        <v>4216994696</v>
+        <v>10021274730</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2269,7 +2275,7 @@
         <v>94</v>
       </c>
       <c r="C97">
-        <v>4007866232</v>
+        <v>10021737665</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2280,7 +2286,7 @@
         <v>95</v>
       </c>
       <c r="C98">
-        <v>10021274730</v>
+        <v>10022168008</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2291,7 +2297,7 @@
         <v>96</v>
       </c>
       <c r="C99">
-        <v>3467051905</v>
+        <v>10029334334</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2302,7 +2308,7 @@
         <v>97</v>
       </c>
       <c r="C100">
-        <v>4106220072</v>
+        <v>10029680765</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2313,7 +2319,7 @@
         <v>98</v>
       </c>
       <c r="C101">
-        <v>2762302170</v>
+        <v>10031071945</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2324,7 +2330,7 @@
         <v>99</v>
       </c>
       <c r="C102">
-        <v>3428560088</v>
+        <v>10032229194</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2335,7 +2341,7 @@
         <v>100</v>
       </c>
       <c r="C103">
-        <v>4814002403</v>
+        <v>10032845043</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2346,7 +2352,7 @@
         <v>101</v>
       </c>
       <c r="C104">
-        <v>4759895702</v>
+        <v>10033869013</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2357,7 +2363,7 @@
         <v>102</v>
       </c>
       <c r="C105">
-        <v>10034518113</v>
+        <v>100338690131</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -2368,7 +2374,7 @@
         <v>103</v>
       </c>
       <c r="C106">
-        <v>1893257861</v>
+        <v>10034353298</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2379,7 +2385,7 @@
         <v>104</v>
       </c>
       <c r="C107">
-        <v>10012393953</v>
+        <v>10034518113</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2390,7 +2396,7 @@
         <v>105</v>
       </c>
       <c r="C108">
-        <v>4127657895</v>
+        <v>10034558511</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2401,7 +2407,7 @@
         <v>106</v>
       </c>
       <c r="C109">
-        <v>4518605337</v>
+        <v>10034634447</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -2412,7 +2418,7 @@
         <v>107</v>
       </c>
       <c r="C110">
-        <v>1893169966</v>
+        <v>100032854261</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2422,11 +2428,12 @@
       <c r="B111" t="s">
         <v>108</v>
       </c>
-      <c r="C111">
-        <v>1893246162</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C111">
+    <sortCondition ref="C1:C111"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>